--- a/Code/Results/Cases/Case_4_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.72116590993361</v>
+        <v>13.84444160904917</v>
       </c>
       <c r="C2">
-        <v>6.410525958476049</v>
+        <v>7.404700331357763</v>
       </c>
       <c r="D2">
-        <v>9.525324957169975</v>
+        <v>13.79735813243375</v>
       </c>
       <c r="E2">
-        <v>8.747344602174705</v>
+        <v>14.30943522161497</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.36745028069189</v>
+        <v>38.75699452027821</v>
       </c>
       <c r="H2">
-        <v>10.132175542162</v>
+        <v>16.92050874979337</v>
       </c>
       <c r="I2">
-        <v>16.37792799186133</v>
+        <v>26.69889457444484</v>
       </c>
       <c r="J2">
-        <v>4.93545818494956</v>
+        <v>8.574804373849281</v>
       </c>
       <c r="K2">
-        <v>10.92946439917154</v>
+        <v>10.75487860213764</v>
       </c>
       <c r="L2">
-        <v>7.638119827793729</v>
+        <v>12.1201095686154</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.15330398779406</v>
+        <v>20.30674022092482</v>
       </c>
       <c r="O2">
-        <v>16.89248751549431</v>
+        <v>27.06042853053681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.89318349525696</v>
+        <v>13.64082652023611</v>
       </c>
       <c r="C3">
-        <v>6.293409409295649</v>
+        <v>7.369289078718641</v>
       </c>
       <c r="D3">
-        <v>9.2899583980877</v>
+        <v>13.78961947914351</v>
       </c>
       <c r="E3">
-        <v>8.68650845839541</v>
+        <v>14.32996176696378</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.19014218020196</v>
+        <v>38.85317870845344</v>
       </c>
       <c r="H3">
-        <v>10.19168896277232</v>
+        <v>16.96609453911172</v>
       </c>
       <c r="I3">
-        <v>16.50181327490177</v>
+        <v>26.78430182364682</v>
       </c>
       <c r="J3">
-        <v>4.960193494269995</v>
+        <v>8.585209836460187</v>
       </c>
       <c r="K3">
-        <v>10.26253701123597</v>
+        <v>10.60936204762067</v>
       </c>
       <c r="L3">
-        <v>7.497669914763767</v>
+        <v>12.12088230673</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.3332069870573</v>
+        <v>20.36238588133515</v>
       </c>
       <c r="O3">
-        <v>16.92744994266954</v>
+        <v>27.13680343401371</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35980951237087</v>
+        <v>13.51646607814988</v>
       </c>
       <c r="C4">
-        <v>6.220278124986072</v>
+        <v>7.347232337629229</v>
       </c>
       <c r="D4">
-        <v>9.147379598640221</v>
+        <v>13.78729597499428</v>
       </c>
       <c r="E4">
-        <v>8.652861305309978</v>
+        <v>14.34445389550186</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.10330096778212</v>
+        <v>38.92095896967271</v>
       </c>
       <c r="H4">
-        <v>10.23315740670136</v>
+        <v>16.99626509354551</v>
       </c>
       <c r="I4">
-        <v>16.58731127141952</v>
+        <v>26.84074884013348</v>
       </c>
       <c r="J4">
-        <v>4.975997379866572</v>
+        <v>8.591961867301915</v>
       </c>
       <c r="K4">
-        <v>9.830030184577327</v>
+        <v>10.52051430689779</v>
       </c>
       <c r="L4">
-        <v>7.413159983685702</v>
+        <v>12.12294064291302</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.44637201772762</v>
+        <v>20.39818425652604</v>
       </c>
       <c r="O4">
-        <v>16.95984829389201</v>
+        <v>27.18814753736513</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.13630452885195</v>
+        <v>13.46601466243442</v>
       </c>
       <c r="C5">
-        <v>6.190188622624881</v>
+        <v>7.338167656054208</v>
       </c>
       <c r="D5">
-        <v>9.089841521864312</v>
+        <v>13.78696189991491</v>
       </c>
       <c r="E5">
-        <v>8.640077862834046</v>
+        <v>14.35083500861138</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.07331343305142</v>
+        <v>38.95076917523129</v>
       </c>
       <c r="H5">
-        <v>10.2512621814287</v>
+        <v>17.00910861204253</v>
       </c>
       <c r="I5">
-        <v>16.62445066446968</v>
+        <v>26.86475923195768</v>
       </c>
       <c r="J5">
-        <v>4.982593929556521</v>
+        <v>8.594804923438158</v>
       </c>
       <c r="K5">
-        <v>9.648014215179572</v>
+        <v>10.48447421182713</v>
       </c>
       <c r="L5">
-        <v>7.379191568873702</v>
+        <v>12.12417894351116</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.49318324729826</v>
+        <v>20.41318385532617</v>
       </c>
       <c r="O5">
-        <v>16.97571267476371</v>
+        <v>27.21018912301982</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.09882477474433</v>
+        <v>13.45765269100808</v>
       </c>
       <c r="C6">
-        <v>6.185175473077735</v>
+        <v>7.33665793512486</v>
       </c>
       <c r="D6">
-        <v>9.080323687384942</v>
+        <v>13.7869434954776</v>
       </c>
       <c r="E6">
-        <v>8.638011086245408</v>
+        <v>14.35192331777392</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.06865596465277</v>
+        <v>38.95585122826004</v>
       </c>
       <c r="H6">
-        <v>10.25434037070003</v>
+        <v>17.01127442535152</v>
       </c>
       <c r="I6">
-        <v>16.63075435529757</v>
+        <v>26.86880701462886</v>
       </c>
       <c r="J6">
-        <v>4.98369876341958</v>
+        <v>8.595282547739822</v>
       </c>
       <c r="K6">
-        <v>9.617443167081866</v>
+        <v>10.47850098994406</v>
       </c>
       <c r="L6">
-        <v>7.37358056558438</v>
+        <v>12.12440872574525</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.50099867382528</v>
+        <v>20.41569941329748</v>
       </c>
       <c r="O6">
-        <v>16.97850517593926</v>
+        <v>27.21391664929073</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35681994930738</v>
+        <v>13.51578467574704</v>
       </c>
       <c r="C7">
-        <v>6.219873467160538</v>
+        <v>7.347110393998101</v>
       </c>
       <c r="D7">
-        <v>9.146601234553401</v>
+        <v>13.78728898575063</v>
       </c>
       <c r="E7">
-        <v>8.652685152119059</v>
+        <v>14.34453802768678</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.10287486810558</v>
+        <v>38.92135214242224</v>
       </c>
       <c r="H7">
-        <v>10.23339673327977</v>
+        <v>16.99643608321291</v>
       </c>
       <c r="I7">
-        <v>16.58780293536692</v>
+        <v>26.84106857186127</v>
       </c>
       <c r="J7">
-        <v>4.976085708446215</v>
+        <v>8.591999838725449</v>
       </c>
       <c r="K7">
-        <v>9.827598764815811</v>
+        <v>10.52002753186843</v>
       </c>
       <c r="L7">
-        <v>7.41269992355347</v>
+        <v>12.12295572391009</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.44700049371258</v>
+        <v>20.39838487879023</v>
       </c>
       <c r="O7">
-        <v>16.96005158349153</v>
+        <v>27.18844026996464</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.440933815349</v>
+        <v>13.7741343767826</v>
       </c>
       <c r="C8">
-        <v>6.370408844840576</v>
+        <v>7.392557278822136</v>
       </c>
       <c r="D8">
-        <v>9.443814230267069</v>
+        <v>13.79418732127658</v>
       </c>
       <c r="E8">
-        <v>8.725597087862784</v>
+        <v>14.31612108633412</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.30166375600768</v>
+        <v>38.78834599827315</v>
       </c>
       <c r="H8">
-        <v>10.15165300656887</v>
+        <v>16.9357743797251</v>
       </c>
       <c r="I8">
-        <v>16.41864084661765</v>
+        <v>26.72751158830193</v>
       </c>
       <c r="J8">
-        <v>4.943859836613578</v>
+        <v>8.578316986553101</v>
       </c>
       <c r="K8">
-        <v>10.7042925754498</v>
+        <v>10.70462492516627</v>
       </c>
       <c r="L8">
-        <v>7.589355906093742</v>
+        <v>12.12004804810841</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.21478297666831</v>
+        <v>20.32558888479397</v>
       </c>
       <c r="O8">
-        <v>16.90222131894501</v>
+        <v>27.08583882884624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36431537442339</v>
+        <v>14.2833533661984</v>
       </c>
       <c r="C9">
-        <v>6.655131789375554</v>
+        <v>7.479073666834096</v>
       </c>
       <c r="D9">
-        <v>10.03873153015022</v>
+        <v>13.82687099076366</v>
       </c>
       <c r="E9">
-        <v>8.898096477770489</v>
+        <v>14.27535823746094</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.87176575109718</v>
+        <v>38.59690608782907</v>
       </c>
       <c r="H9">
-        <v>10.03198636323531</v>
+        <v>16.83410103845438</v>
       </c>
       <c r="I9">
-        <v>16.16521087797025</v>
+        <v>26.53660484222059</v>
       </c>
       <c r="J9">
-        <v>4.885491451420012</v>
+        <v>8.554353625956114</v>
       </c>
       <c r="K9">
-        <v>12.24053826705039</v>
+        <v>11.06881961050743</v>
       </c>
       <c r="L9">
-        <v>7.947899631703883</v>
+        <v>12.12685570872672</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.78011499200235</v>
+        <v>20.19572920760501</v>
       </c>
       <c r="O9">
-        <v>16.87945911087254</v>
+        <v>26.91996213927392</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.71930794509645</v>
+        <v>14.65557586125284</v>
       </c>
       <c r="C10">
-        <v>6.856967247292343</v>
+        <v>7.54090067634712</v>
       </c>
       <c r="D10">
-        <v>10.47899598608208</v>
+        <v>13.86239705174102</v>
       </c>
       <c r="E10">
-        <v>9.0428925184564</v>
+        <v>14.25449781758372</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.40709157989867</v>
+        <v>38.49876809522833</v>
       </c>
       <c r="H10">
-        <v>9.971053759110974</v>
+        <v>16.76991269099793</v>
       </c>
       <c r="I10">
-        <v>16.03174949309361</v>
+        <v>26.41570091920739</v>
       </c>
       <c r="J10">
-        <v>4.845459037488585</v>
+        <v>8.538480052377096</v>
       </c>
       <c r="K10">
-        <v>13.25779682480863</v>
+        <v>11.3353928992502</v>
       </c>
       <c r="L10">
-        <v>8.216630886343872</v>
+        <v>12.13940087062166</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.47229931651021</v>
+        <v>20.10810463750351</v>
       </c>
       <c r="O10">
-        <v>16.92335161152587</v>
+        <v>26.81965142767297</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.31489716958807</v>
+        <v>14.82378326483861</v>
       </c>
       <c r="C11">
-        <v>6.947013551222908</v>
+        <v>7.568618747082582</v>
       </c>
       <c r="D11">
-        <v>10.67916884836919</v>
+        <v>13.88101706912943</v>
       </c>
       <c r="E11">
-        <v>9.112674380553001</v>
+        <v>14.24697301383739</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.67704196694491</v>
+        <v>38.46339025499002</v>
       </c>
       <c r="H11">
-        <v>9.949702468816984</v>
+        <v>16.74298870100199</v>
       </c>
       <c r="I11">
-        <v>15.98363975364957</v>
+        <v>26.36489789300911</v>
       </c>
       <c r="J11">
-        <v>4.827845762480301</v>
+        <v>8.531631405030872</v>
       </c>
       <c r="K11">
-        <v>13.69653468965454</v>
+        <v>11.45596348762468</v>
       </c>
       <c r="L11">
-        <v>8.339616125740447</v>
+        <v>12.14672599141941</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.33451852714423</v>
+        <v>20.06991570544049</v>
       </c>
       <c r="O11">
-        <v>16.95762582667177</v>
+        <v>26.77870317184563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53558903539452</v>
+        <v>14.8872609671805</v>
       </c>
       <c r="C12">
-        <v>6.980844121291082</v>
+        <v>7.579053555093217</v>
       </c>
       <c r="D12">
-        <v>10.75489343055046</v>
+        <v>13.88841749848507</v>
       </c>
       <c r="E12">
-        <v>9.139658888389841</v>
+        <v>14.24440528283666</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.78313864649948</v>
+        <v>38.45132808139947</v>
       </c>
       <c r="H12">
-        <v>9.942577118846065</v>
+        <v>16.73312011917444</v>
       </c>
       <c r="I12">
-        <v>15.96733481889452</v>
+        <v>26.34626341549147</v>
       </c>
       <c r="J12">
-        <v>4.82126032568139</v>
+        <v>8.529091274308628</v>
       </c>
       <c r="K12">
-        <v>13.85923749842527</v>
+        <v>11.50148145014015</v>
       </c>
       <c r="L12">
-        <v>8.386260521838194</v>
+        <v>12.14973059869579</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.28264597270922</v>
+        <v>20.05569376981167</v>
       </c>
       <c r="O12">
-        <v>16.97275496231848</v>
+        <v>26.76387093998426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48827383584785</v>
+        <v>14.87360053882162</v>
       </c>
       <c r="C13">
-        <v>6.973570222225213</v>
+        <v>7.57680900956991</v>
       </c>
       <c r="D13">
-        <v>10.73858910668482</v>
+        <v>13.88680821237505</v>
       </c>
       <c r="E13">
-        <v>9.13382245970142</v>
+        <v>14.24494577180414</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.76011558208307</v>
+        <v>38.45386649733521</v>
       </c>
       <c r="H13">
-        <v>9.944068273238029</v>
+        <v>16.7352309581869</v>
       </c>
       <c r="I13">
-        <v>15.9707596377758</v>
+        <v>26.35024984106457</v>
       </c>
       <c r="J13">
-        <v>4.82267489309951</v>
+        <v>8.52963596995995</v>
       </c>
       <c r="K13">
-        <v>13.82434913105762</v>
+        <v>11.49168516337395</v>
       </c>
       <c r="L13">
-        <v>8.376212101410651</v>
+        <v>12.14907327298258</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.29380456726739</v>
+        <v>20.05874608782738</v>
       </c>
       <c r="O13">
-        <v>16.96939953046002</v>
+        <v>26.76703534373278</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.33315045674162</v>
+        <v>14.82901032281749</v>
       </c>
       <c r="C14">
-        <v>6.949802256158491</v>
+        <v>7.569478472320593</v>
       </c>
       <c r="D14">
-        <v>10.68540062028076</v>
+        <v>13.88161892880161</v>
       </c>
       <c r="E14">
-        <v>9.114883216966703</v>
+        <v>14.24675612305644</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>27.68569262630346</v>
+        <v>38.46237113338755</v>
       </c>
       <c r="H14">
-        <v>9.949096763620474</v>
+        <v>16.74217025590574</v>
       </c>
       <c r="I14">
-        <v>15.98225940096535</v>
+        <v>26.36335272755607</v>
       </c>
       <c r="J14">
-        <v>4.827302294010969</v>
+        <v>8.531421360011704</v>
       </c>
       <c r="K14">
-        <v>13.70998913778411</v>
+        <v>11.45971129576592</v>
       </c>
       <c r="L14">
-        <v>8.343452318890655</v>
+        <v>12.14696856951965</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.33024501137627</v>
+        <v>20.06874086652051</v>
       </c>
       <c r="O14">
-        <v>16.95882688696155</v>
+        <v>26.77746940497311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.23750332897627</v>
+        <v>14.80166735152226</v>
       </c>
       <c r="C15">
-        <v>6.935208411350163</v>
+        <v>7.564980223034524</v>
       </c>
       <c r="D15">
-        <v>10.65280944590704</v>
+        <v>13.8784857198822</v>
       </c>
       <c r="E15">
-        <v>9.103355158790654</v>
+        <v>14.24790168342848</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>27.64061264602741</v>
+        <v>38.4677543367532</v>
       </c>
       <c r="H15">
-        <v>9.952303214599755</v>
+        <v>16.7464633461667</v>
       </c>
       <c r="I15">
-        <v>15.98955555706818</v>
+        <v>26.37145722186678</v>
       </c>
       <c r="J15">
-        <v>4.8301476438555</v>
+        <v>8.532521897681496</v>
       </c>
       <c r="K15">
-        <v>13.63949319654169</v>
+        <v>11.44010705848785</v>
       </c>
       <c r="L15">
-        <v>8.323394494736448</v>
+        <v>12.14570936705329</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.3526045300645</v>
+        <v>20.07489410136847</v>
       </c>
       <c r="O15">
-        <v>16.95263360336197</v>
+        <v>26.7839483548618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.67970433187821</v>
+        <v>14.64455560285597</v>
       </c>
       <c r="C16">
-        <v>6.851045708634168</v>
+        <v>7.539080794745439</v>
       </c>
       <c r="D16">
-        <v>10.46590672014281</v>
+        <v>13.86122932253284</v>
       </c>
       <c r="E16">
-        <v>9.038410609839767</v>
+        <v>14.25502905147534</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.38998791252987</v>
+        <v>38.5012667740117</v>
       </c>
       <c r="H16">
-        <v>9.97258098973129</v>
+        <v>16.77171800414013</v>
       </c>
       <c r="I16">
-        <v>16.03515570809621</v>
+        <v>26.41910546916473</v>
       </c>
       <c r="J16">
-        <v>4.846621996115299</v>
+        <v>8.538935099421559</v>
       </c>
       <c r="K16">
-        <v>13.22864224732516</v>
+        <v>11.32749593271604</v>
       </c>
       <c r="L16">
-        <v>8.208605445614465</v>
+        <v>12.13895455559345</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.48134704626329</v>
+        <v>20.11063392855893</v>
       </c>
       <c r="O16">
-        <v>16.92140756684064</v>
+        <v>26.82242178149315</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32883466781115</v>
+        <v>14.54784426847662</v>
       </c>
       <c r="C17">
-        <v>6.798951266653086</v>
+        <v>7.523085974371021</v>
       </c>
       <c r="D17">
-        <v>10.35117547069183</v>
+        <v>13.85127003325787</v>
       </c>
       <c r="E17">
-        <v>8.999569600588702</v>
+        <v>14.25990413945039</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.2430616400329</v>
+        <v>38.52420049783387</v>
       </c>
       <c r="H17">
-        <v>9.986682529845439</v>
+        <v>16.78779355735632</v>
       </c>
       <c r="I17">
-        <v>16.0664282502805</v>
+        <v>26.4494110436429</v>
       </c>
       <c r="J17">
-        <v>4.856880421627544</v>
+        <v>8.542964582746317</v>
       </c>
       <c r="K17">
-        <v>12.97045698478955</v>
+        <v>11.25820611993152</v>
       </c>
       <c r="L17">
-        <v>8.138350578342752</v>
+        <v>12.13522381857738</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.56088712217401</v>
+        <v>20.13298663384076</v>
       </c>
       <c r="O17">
-        <v>16.90598216559803</v>
+        <v>26.8472239293543</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1238201035357</v>
+        <v>14.49211653153036</v>
       </c>
       <c r="C18">
-        <v>6.768822070947945</v>
+        <v>7.513848005352338</v>
       </c>
       <c r="D18">
-        <v>10.2851784737547</v>
+        <v>13.8457734399121</v>
       </c>
       <c r="E18">
-        <v>8.977597874575887</v>
+        <v>14.26289313888241</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.16103755288277</v>
+        <v>38.53826339223729</v>
       </c>
       <c r="H18">
-        <v>9.995389919714398</v>
+        <v>16.79725399848178</v>
       </c>
       <c r="I18">
-        <v>16.08559530045985</v>
+        <v>26.46723702643428</v>
       </c>
       <c r="J18">
-        <v>4.862837151974264</v>
+        <v>8.545317293552959</v>
       </c>
       <c r="K18">
-        <v>12.81969370145326</v>
+        <v>11.21828933519962</v>
       </c>
       <c r="L18">
-        <v>8.098013194872351</v>
+        <v>12.13323044138762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.60684920026975</v>
+        <v>20.14600074940216</v>
       </c>
       <c r="O18">
-        <v>16.89845104275122</v>
+        <v>26.86193028486444</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05385411373383</v>
+        <v>14.47323237009942</v>
       </c>
       <c r="C19">
-        <v>6.758592794583378</v>
+        <v>7.51071371871115</v>
       </c>
       <c r="D19">
-        <v>10.2628338493403</v>
+        <v>13.84395230891966</v>
       </c>
       <c r="E19">
-        <v>8.970222013685918</v>
+        <v>14.26393695534477</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.13368984898018</v>
+        <v>38.54317453971107</v>
       </c>
       <c r="H19">
-        <v>9.998439229986465</v>
+        <v>16.80049394031553</v>
       </c>
       <c r="I19">
-        <v>16.09228457666175</v>
+        <v>26.47334044164097</v>
       </c>
       <c r="J19">
-        <v>4.864863726006663</v>
+        <v>8.54611990957363</v>
       </c>
       <c r="K19">
-        <v>12.76825893038915</v>
+        <v>11.20476458331829</v>
       </c>
       <c r="L19">
-        <v>8.084368962384202</v>
+        <v>12.13258175821593</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.62244832768447</v>
+        <v>20.15043417596217</v>
       </c>
       <c r="O19">
-        <v>16.89612863698366</v>
+        <v>26.86698529885975</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.3665165807176</v>
+        <v>14.55815033158476</v>
       </c>
       <c r="C20">
-        <v>6.804514076588222</v>
+        <v>7.524792621560275</v>
       </c>
       <c r="D20">
-        <v>10.36338995524089</v>
+        <v>13.85230626299543</v>
       </c>
       <c r="E20">
-        <v>9.003666164157863</v>
+        <v>14.25936603890987</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.25844454689151</v>
+        <v>38.52166889456194</v>
       </c>
       <c r="H20">
-        <v>9.98511934004881</v>
+        <v>16.78606011957202</v>
       </c>
       <c r="I20">
-        <v>16.06297640033821</v>
+        <v>26.44614408038983</v>
       </c>
       <c r="J20">
-        <v>4.855782573703235</v>
+        <v>8.542532010653032</v>
       </c>
       <c r="K20">
-        <v>12.99817524632785</v>
+        <v>11.26558896178243</v>
       </c>
       <c r="L20">
-        <v>8.145822193470128</v>
+        <v>12.13560519832022</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.55239807687956</v>
+        <v>20.13059086425748</v>
       </c>
       <c r="O20">
-        <v>16.90748474570393</v>
+        <v>26.84453807182654</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.37884507462027</v>
+        <v>14.84211393926155</v>
       </c>
       <c r="C21">
-        <v>6.956790858164576</v>
+        <v>7.571633318479325</v>
       </c>
       <c r="D21">
-        <v>10.70102590577302</v>
+        <v>13.88313369852821</v>
       </c>
       <c r="E21">
-        <v>9.120430972035972</v>
+        <v>14.24621673891361</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.70744684241142</v>
+        <v>38.45983687837677</v>
       </c>
       <c r="H21">
-        <v>9.947593360188893</v>
+        <v>16.7401231448996</v>
       </c>
       <c r="I21">
-        <v>15.97882889361479</v>
+        <v>26.35948771235659</v>
       </c>
       <c r="J21">
-        <v>4.825940838689481</v>
+        <v>8.53089550290578</v>
       </c>
       <c r="K21">
-        <v>13.74367258987374</v>
+        <v>11.46910689084534</v>
       </c>
       <c r="L21">
-        <v>8.353072948991738</v>
+        <v>12.14758052590629</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.31953354464897</v>
+        <v>20.065798669131</v>
       </c>
       <c r="O21">
-        <v>16.96187323602562</v>
+        <v>26.7743863729295</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01224266854699</v>
+        <v>15.02639997135537</v>
       </c>
       <c r="C22">
-        <v>7.054745151240105</v>
+        <v>7.601887083218731</v>
       </c>
       <c r="D22">
-        <v>10.92122006281702</v>
+        <v>13.90531580981723</v>
       </c>
       <c r="E22">
-        <v>9.200003545704284</v>
+        <v>14.23926475432081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.02349215743454</v>
+        <v>38.42720608467462</v>
       </c>
       <c r="H22">
-        <v>9.928684936427963</v>
+        <v>16.71200625377251</v>
       </c>
       <c r="I22">
-        <v>15.93503486269656</v>
+        <v>26.30637059630907</v>
       </c>
       <c r="J22">
-        <v>4.806928281140433</v>
+        <v>8.523600957430485</v>
       </c>
       <c r="K22">
-        <v>14.21087087309034</v>
+        <v>11.60128706908592</v>
       </c>
       <c r="L22">
-        <v>8.488932207270954</v>
+        <v>12.15675104246611</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.16909312260115</v>
+        <v>20.02484806485141</v>
       </c>
       <c r="O22">
-        <v>17.00999491129218</v>
+        <v>26.73246686042618</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.6767530979653</v>
+        <v>14.92818063356861</v>
       </c>
       <c r="C23">
-        <v>7.002612601290786</v>
+        <v>7.585773897281511</v>
       </c>
       <c r="D23">
-        <v>10.80376011601514</v>
+        <v>13.89329209522975</v>
       </c>
       <c r="E23">
-        <v>9.157237089133485</v>
+        <v>14.24282520294359</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.85272440781711</v>
+        <v>38.44390927711618</v>
       </c>
       <c r="H23">
-        <v>9.938247662915636</v>
+        <v>16.72683850029776</v>
       </c>
       <c r="I23">
-        <v>15.95734922759072</v>
+        <v>26.33439830660813</v>
       </c>
       <c r="J23">
-        <v>4.817031285736702</v>
+        <v>8.527465852466205</v>
       </c>
       <c r="K23">
-        <v>13.96334452222464</v>
+        <v>11.53082875304056</v>
       </c>
       <c r="L23">
-        <v>8.416394674207893</v>
+        <v>12.15173427454591</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.24923308780954</v>
+        <v>20.0465768846531</v>
       </c>
       <c r="O23">
-        <v>16.98313034229027</v>
+        <v>26.75448047287837</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.34949085424251</v>
+        <v>14.55349135190966</v>
       </c>
       <c r="C24">
-        <v>6.801999687984607</v>
+        <v>7.524021178020155</v>
       </c>
       <c r="D24">
-        <v>10.35786789566034</v>
+        <v>13.85183706949984</v>
       </c>
       <c r="E24">
-        <v>9.001812990930382</v>
+        <v>14.25960873397653</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.25148232221381</v>
+        <v>38.52281069770467</v>
       </c>
       <c r="H24">
-        <v>9.985824191917962</v>
+        <v>16.78684312649543</v>
       </c>
       <c r="I24">
-        <v>16.06453328878402</v>
+        <v>26.44761981945853</v>
       </c>
       <c r="J24">
-        <v>4.85627872677883</v>
+        <v>8.542727464009666</v>
       </c>
       <c r="K24">
-        <v>12.98565107620014</v>
+        <v>11.26225142870941</v>
       </c>
       <c r="L24">
-        <v>8.142444108379124</v>
+        <v>12.13543230457303</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.5562352456067</v>
+        <v>20.13167348309632</v>
       </c>
       <c r="O24">
-        <v>16.90680127137223</v>
+        <v>26.84575095483457</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.8661670473223</v>
+        <v>14.1456822548684</v>
       </c>
       <c r="C25">
-        <v>6.579332494428317</v>
+        <v>7.455962873918215</v>
       </c>
       <c r="D25">
-        <v>9.876943233948039</v>
+        <v>13.81599409739527</v>
       </c>
       <c r="E25">
-        <v>8.848258605359684</v>
+        <v>14.28478704747724</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.69750719604845</v>
+        <v>38.64124357357971</v>
       </c>
       <c r="H25">
-        <v>10.05978652520872</v>
+        <v>16.85975866208565</v>
       </c>
       <c r="I25">
-        <v>16.22488649957303</v>
+        <v>26.58484994936596</v>
       </c>
       <c r="J25">
-        <v>4.90077424980828</v>
+        <v>8.560530953707785</v>
       </c>
       <c r="K25">
-        <v>11.84454382053367</v>
+        <v>10.97030386312969</v>
       </c>
       <c r="L25">
-        <v>7.849824072746095</v>
+        <v>12.12368285300153</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.89559671629987</v>
+        <v>20.22948736175213</v>
       </c>
       <c r="O25">
-        <v>16.87535960464526</v>
+        <v>26.96105177084742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_84/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.84444160904917</v>
+        <v>13.72116590993364</v>
       </c>
       <c r="C2">
-        <v>7.404700331357763</v>
+        <v>6.410525958476268</v>
       </c>
       <c r="D2">
-        <v>13.79735813243375</v>
+        <v>9.525324957170103</v>
       </c>
       <c r="E2">
-        <v>14.30943522161497</v>
+        <v>8.747344602174763</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>38.75699452027821</v>
+        <v>26.36745028069232</v>
       </c>
       <c r="H2">
-        <v>16.92050874979337</v>
+        <v>10.132175542162</v>
       </c>
       <c r="I2">
-        <v>26.69889457444484</v>
+        <v>16.37792799186152</v>
       </c>
       <c r="J2">
-        <v>8.574804373849281</v>
+        <v>4.93545818494953</v>
       </c>
       <c r="K2">
-        <v>10.75487860213764</v>
+        <v>10.92946439917151</v>
       </c>
       <c r="L2">
-        <v>12.1201095686154</v>
+        <v>7.638119827793671</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.30674022092482</v>
+        <v>13.15330398779412</v>
       </c>
       <c r="O2">
-        <v>27.06042853053681</v>
+        <v>16.89248751549447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.64082652023611</v>
+        <v>12.89318349525696</v>
       </c>
       <c r="C3">
-        <v>7.369289078718641</v>
+        <v>6.293409409295403</v>
       </c>
       <c r="D3">
-        <v>13.78961947914351</v>
+        <v>9.289958398087718</v>
       </c>
       <c r="E3">
-        <v>14.32996176696378</v>
+        <v>8.686508458395458</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.85317870845344</v>
+        <v>26.19014218020207</v>
       </c>
       <c r="H3">
-        <v>16.96609453911172</v>
+        <v>10.19168896277244</v>
       </c>
       <c r="I3">
-        <v>26.78430182364682</v>
+        <v>16.50181327490178</v>
       </c>
       <c r="J3">
-        <v>8.585209836460187</v>
+        <v>4.960193494269996</v>
       </c>
       <c r="K3">
-        <v>10.60936204762067</v>
+        <v>10.26253701123595</v>
       </c>
       <c r="L3">
-        <v>12.12088230673</v>
+        <v>7.497669914763806</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.36238588133515</v>
+        <v>13.33320698705732</v>
       </c>
       <c r="O3">
-        <v>27.13680343401371</v>
+        <v>16.92744994266961</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.51646607814988</v>
+        <v>12.35980951237089</v>
       </c>
       <c r="C4">
-        <v>7.347232337629229</v>
+        <v>6.220278124985953</v>
       </c>
       <c r="D4">
-        <v>13.78729597499428</v>
+        <v>9.147379598640111</v>
       </c>
       <c r="E4">
-        <v>14.34445389550186</v>
+        <v>8.652861305309974</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>38.92095896967271</v>
+        <v>26.10330096778257</v>
       </c>
       <c r="H4">
-        <v>16.99626509354551</v>
+        <v>10.23315740670143</v>
       </c>
       <c r="I4">
-        <v>26.84074884013348</v>
+        <v>16.58731127141962</v>
       </c>
       <c r="J4">
-        <v>8.591961867301915</v>
+        <v>4.975997379866637</v>
       </c>
       <c r="K4">
-        <v>10.52051430689779</v>
+        <v>9.830030184577259</v>
       </c>
       <c r="L4">
-        <v>12.12294064291302</v>
+        <v>7.413159983685746</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.39818425652604</v>
+        <v>13.44637201772761</v>
       </c>
       <c r="O4">
-        <v>27.18814753736513</v>
+        <v>16.95984829389216</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.46601466243442</v>
+        <v>12.13630452885193</v>
       </c>
       <c r="C5">
-        <v>7.338167656054208</v>
+        <v>6.19018862262449</v>
       </c>
       <c r="D5">
-        <v>13.78696189991491</v>
+        <v>9.089841521864262</v>
       </c>
       <c r="E5">
-        <v>14.35083500861138</v>
+        <v>8.640077862833996</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.95076917523129</v>
+        <v>26.07331343305135</v>
       </c>
       <c r="H5">
-        <v>17.00910861204253</v>
+        <v>10.25126218142865</v>
       </c>
       <c r="I5">
-        <v>26.86475923195768</v>
+        <v>16.62445066446952</v>
       </c>
       <c r="J5">
-        <v>8.594804923438158</v>
+        <v>4.982593929556521</v>
       </c>
       <c r="K5">
-        <v>10.48447421182713</v>
+        <v>9.648014215179606</v>
       </c>
       <c r="L5">
-        <v>12.12417894351116</v>
+        <v>7.379191568873791</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.41318385532617</v>
+        <v>13.49318324729822</v>
       </c>
       <c r="O5">
-        <v>27.21018912301982</v>
+        <v>16.97571267476361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.45765269100808</v>
+        <v>12.09882477474434</v>
       </c>
       <c r="C6">
-        <v>7.33665793512486</v>
+        <v>6.185175473077586</v>
       </c>
       <c r="D6">
-        <v>13.7869434954776</v>
+        <v>9.080323687385009</v>
       </c>
       <c r="E6">
-        <v>14.35192331777392</v>
+        <v>8.638011086245362</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.95585122826004</v>
+        <v>26.06865596465277</v>
       </c>
       <c r="H6">
-        <v>17.01127442535152</v>
+        <v>10.25434037070003</v>
       </c>
       <c r="I6">
-        <v>26.86880701462886</v>
+        <v>16.63075435529752</v>
       </c>
       <c r="J6">
-        <v>8.595282547739822</v>
+        <v>4.983698763419548</v>
       </c>
       <c r="K6">
-        <v>10.47850098994406</v>
+        <v>9.617443167081859</v>
       </c>
       <c r="L6">
-        <v>12.12440872574525</v>
+        <v>7.373580565584403</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.41569941329748</v>
+        <v>13.50099867382528</v>
       </c>
       <c r="O6">
-        <v>27.21391664929073</v>
+        <v>16.97850517593926</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.51578467574704</v>
+        <v>12.35681994930747</v>
       </c>
       <c r="C7">
-        <v>7.347110393998101</v>
+        <v>6.219873467160653</v>
       </c>
       <c r="D7">
-        <v>13.78728898575063</v>
+        <v>9.146601234553502</v>
       </c>
       <c r="E7">
-        <v>14.34453802768678</v>
+        <v>8.65268515211906</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>38.92135214242224</v>
+        <v>26.10287486810621</v>
       </c>
       <c r="H7">
-        <v>16.99643608321291</v>
+        <v>10.23339673328002</v>
       </c>
       <c r="I7">
-        <v>26.84106857186127</v>
+        <v>16.58780293536726</v>
       </c>
       <c r="J7">
-        <v>8.591999838725449</v>
+        <v>4.97608570844615</v>
       </c>
       <c r="K7">
-        <v>10.52002753186843</v>
+        <v>9.827598764815734</v>
       </c>
       <c r="L7">
-        <v>12.12295572391009</v>
+        <v>7.412699923553495</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.39838487879023</v>
+        <v>13.44700049371275</v>
       </c>
       <c r="O7">
-        <v>27.18844026996464</v>
+        <v>16.96005158349194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.7741343767826</v>
+        <v>13.44093381534904</v>
       </c>
       <c r="C8">
-        <v>7.392557278822136</v>
+        <v>6.370408844840451</v>
       </c>
       <c r="D8">
-        <v>13.79418732127658</v>
+        <v>9.443814230266929</v>
       </c>
       <c r="E8">
-        <v>14.31612108633412</v>
+        <v>8.725597087862722</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.78834599827315</v>
+        <v>26.3016637560081</v>
       </c>
       <c r="H8">
-        <v>16.9357743797251</v>
+        <v>10.15165300656888</v>
       </c>
       <c r="I8">
-        <v>26.72751158830193</v>
+        <v>16.41864084661774</v>
       </c>
       <c r="J8">
-        <v>8.578316986553101</v>
+        <v>4.943859836613644</v>
       </c>
       <c r="K8">
-        <v>10.70462492516627</v>
+        <v>10.7042925754498</v>
       </c>
       <c r="L8">
-        <v>12.12004804810841</v>
+        <v>7.589355906093741</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.32558888479397</v>
+        <v>13.21478297666838</v>
       </c>
       <c r="O8">
-        <v>27.08583882884624</v>
+        <v>16.90222131894515</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2833533661984</v>
+        <v>15.36431537442339</v>
       </c>
       <c r="C9">
-        <v>7.479073666834096</v>
+        <v>6.65513178937521</v>
       </c>
       <c r="D9">
-        <v>13.82687099076366</v>
+        <v>10.03873153015032</v>
       </c>
       <c r="E9">
-        <v>14.27535823746094</v>
+        <v>8.898096477770439</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.59690608782907</v>
+        <v>26.87176575109751</v>
       </c>
       <c r="H9">
-        <v>16.83410103845438</v>
+        <v>10.03198636323532</v>
       </c>
       <c r="I9">
-        <v>26.53660484222059</v>
+        <v>16.16521087797033</v>
       </c>
       <c r="J9">
-        <v>8.554353625956114</v>
+        <v>4.885491451420013</v>
       </c>
       <c r="K9">
-        <v>11.06881961050743</v>
+        <v>12.24053826705038</v>
       </c>
       <c r="L9">
-        <v>12.12685570872672</v>
+        <v>7.94789963170391</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.19572920760501</v>
+        <v>12.78011499200238</v>
       </c>
       <c r="O9">
-        <v>26.91996213927392</v>
+        <v>16.87945911087265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.65557586125284</v>
+        <v>16.71930794509639</v>
       </c>
       <c r="C10">
-        <v>7.54090067634712</v>
+        <v>6.856967247292118</v>
       </c>
       <c r="D10">
-        <v>13.86239705174102</v>
+        <v>10.47899598608221</v>
       </c>
       <c r="E10">
-        <v>14.25449781758372</v>
+        <v>9.04289251845641</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.49876809522833</v>
+        <v>27.40709157989912</v>
       </c>
       <c r="H10">
-        <v>16.76991269099793</v>
+        <v>9.97105375911114</v>
       </c>
       <c r="I10">
-        <v>26.41570091920739</v>
+        <v>16.03174949309383</v>
       </c>
       <c r="J10">
-        <v>8.538480052377096</v>
+        <v>4.845459037488485</v>
       </c>
       <c r="K10">
-        <v>11.3353928992502</v>
+        <v>13.25779682480858</v>
       </c>
       <c r="L10">
-        <v>12.13940087062166</v>
+        <v>8.216630886343946</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.10810463750351</v>
+        <v>12.47229931651034</v>
       </c>
       <c r="O10">
-        <v>26.81965142767297</v>
+        <v>16.92335161152614</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.82378326483861</v>
+        <v>17.31489716958803</v>
       </c>
       <c r="C11">
-        <v>7.568618747082582</v>
+        <v>6.947013551222797</v>
       </c>
       <c r="D11">
-        <v>13.88101706912943</v>
+        <v>10.67916884836916</v>
       </c>
       <c r="E11">
-        <v>14.24697301383739</v>
+        <v>9.112674380553001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.46339025499002</v>
+        <v>27.67704196694514</v>
       </c>
       <c r="H11">
-        <v>16.74298870100199</v>
+        <v>9.949702468817142</v>
       </c>
       <c r="I11">
-        <v>26.36489789300911</v>
+        <v>15.98363975364976</v>
       </c>
       <c r="J11">
-        <v>8.531631405030872</v>
+        <v>4.827845762480367</v>
       </c>
       <c r="K11">
-        <v>11.45596348762468</v>
+        <v>13.69653468965451</v>
       </c>
       <c r="L11">
-        <v>12.14672599141941</v>
+        <v>8.33961612574044</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.06991570544049</v>
+        <v>12.33451852714433</v>
       </c>
       <c r="O11">
-        <v>26.77870317184563</v>
+        <v>16.95762582667196</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.8872609671805</v>
+        <v>17.53558903539451</v>
       </c>
       <c r="C12">
-        <v>7.579053555093217</v>
+        <v>6.980844121291082</v>
       </c>
       <c r="D12">
-        <v>13.88841749848507</v>
+        <v>10.75489343055046</v>
       </c>
       <c r="E12">
-        <v>14.24440528283666</v>
+        <v>9.139658888389883</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>38.45132808139947</v>
+        <v>27.78313864649963</v>
       </c>
       <c r="H12">
-        <v>16.73312011917444</v>
+        <v>9.942577118846076</v>
       </c>
       <c r="I12">
-        <v>26.34626341549147</v>
+        <v>15.96733481889463</v>
       </c>
       <c r="J12">
-        <v>8.529091274308628</v>
+        <v>4.821260325681455</v>
       </c>
       <c r="K12">
-        <v>11.50148145014015</v>
+        <v>13.85923749842523</v>
       </c>
       <c r="L12">
-        <v>12.14973059869579</v>
+        <v>8.386260521838251</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.05569376981167</v>
+        <v>12.28264597270925</v>
       </c>
       <c r="O12">
-        <v>26.76387093998426</v>
+        <v>16.97275496231858</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.87360053882162</v>
+        <v>17.48827383584783</v>
       </c>
       <c r="C13">
-        <v>7.57680900956991</v>
+        <v>6.973570222225274</v>
       </c>
       <c r="D13">
-        <v>13.88680821237505</v>
+        <v>10.73858910668476</v>
       </c>
       <c r="E13">
-        <v>14.24494577180414</v>
+        <v>9.133822459701426</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>38.45386649733521</v>
+        <v>27.76011558208313</v>
       </c>
       <c r="H13">
-        <v>16.7352309581869</v>
+        <v>9.944068273238246</v>
       </c>
       <c r="I13">
-        <v>26.35024984106457</v>
+        <v>15.9707596377759</v>
       </c>
       <c r="J13">
-        <v>8.52963596995995</v>
+        <v>4.822674893099575</v>
       </c>
       <c r="K13">
-        <v>11.49168516337395</v>
+        <v>13.82434913105754</v>
       </c>
       <c r="L13">
-        <v>12.14907327298258</v>
+        <v>8.376212101410657</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.05874608782738</v>
+        <v>12.29380456726743</v>
       </c>
       <c r="O13">
-        <v>26.76703534373278</v>
+        <v>16.96939953046014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.82901032281749</v>
+        <v>17.33315045674161</v>
       </c>
       <c r="C14">
-        <v>7.569478472320593</v>
+        <v>6.949802256158824</v>
       </c>
       <c r="D14">
-        <v>13.88161892880161</v>
+        <v>10.68540062028078</v>
       </c>
       <c r="E14">
-        <v>14.24675612305644</v>
+        <v>9.114883216966753</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.46237113338755</v>
+        <v>27.68569262630318</v>
       </c>
       <c r="H14">
-        <v>16.74217025590574</v>
+        <v>9.949096763620432</v>
       </c>
       <c r="I14">
-        <v>26.36335272755607</v>
+        <v>15.98225940096524</v>
       </c>
       <c r="J14">
-        <v>8.531421360011704</v>
+        <v>4.827302294011001</v>
       </c>
       <c r="K14">
-        <v>11.45971129576592</v>
+        <v>13.70998913778414</v>
       </c>
       <c r="L14">
-        <v>12.14696856951965</v>
+        <v>8.343452318890659</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.06874086652051</v>
+        <v>12.33024501137617</v>
       </c>
       <c r="O14">
-        <v>26.77746940497311</v>
+        <v>16.95882688696139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.80166735152226</v>
+        <v>17.23750332897631</v>
       </c>
       <c r="C15">
-        <v>7.564980223034524</v>
+        <v>6.935208411349914</v>
       </c>
       <c r="D15">
-        <v>13.8784857198822</v>
+        <v>10.65280944590703</v>
       </c>
       <c r="E15">
-        <v>14.24790168342848</v>
+        <v>9.103355158790659</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.4677543367532</v>
+        <v>27.64061264602759</v>
       </c>
       <c r="H15">
-        <v>16.7464633461667</v>
+        <v>9.952303214599818</v>
       </c>
       <c r="I15">
-        <v>26.37145722186678</v>
+        <v>15.98955555706824</v>
       </c>
       <c r="J15">
-        <v>8.532521897681496</v>
+        <v>4.830147643855502</v>
       </c>
       <c r="K15">
-        <v>11.44010705848785</v>
+        <v>13.63949319654167</v>
       </c>
       <c r="L15">
-        <v>12.14570936705329</v>
+        <v>8.323394494736464</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.07489410136847</v>
+        <v>12.3526045300645</v>
       </c>
       <c r="O15">
-        <v>26.7839483548618</v>
+        <v>16.95263360336206</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.64455560285597</v>
+        <v>16.67970433187822</v>
       </c>
       <c r="C16">
-        <v>7.539080794745439</v>
+        <v>6.851045708634251</v>
       </c>
       <c r="D16">
-        <v>13.86122932253284</v>
+        <v>10.46590672014292</v>
       </c>
       <c r="E16">
-        <v>14.25502905147534</v>
+        <v>9.038410609839781</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.5012667740117</v>
+        <v>27.3899879125301</v>
       </c>
       <c r="H16">
-        <v>16.77171800414013</v>
+        <v>9.972580989731354</v>
       </c>
       <c r="I16">
-        <v>26.41910546916473</v>
+        <v>16.03515570809627</v>
       </c>
       <c r="J16">
-        <v>8.538935099421559</v>
+        <v>4.846621996115235</v>
       </c>
       <c r="K16">
-        <v>11.32749593271604</v>
+        <v>13.22864224732516</v>
       </c>
       <c r="L16">
-        <v>12.13895455559345</v>
+        <v>8.208605445614488</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.11063392855893</v>
+        <v>12.48134704626339</v>
       </c>
       <c r="O16">
-        <v>26.82242178149315</v>
+        <v>16.92140756684073</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.54784426847662</v>
+        <v>16.32883466781119</v>
       </c>
       <c r="C17">
-        <v>7.523085974371021</v>
+        <v>6.798951266652957</v>
       </c>
       <c r="D17">
-        <v>13.85127003325787</v>
+        <v>10.3511754706918</v>
       </c>
       <c r="E17">
-        <v>14.25990413945039</v>
+        <v>8.999569600588851</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.52420049783387</v>
+        <v>27.24306164003293</v>
       </c>
       <c r="H17">
-        <v>16.78779355735632</v>
+        <v>9.986682529845401</v>
       </c>
       <c r="I17">
-        <v>26.4494110436429</v>
+        <v>16.06642825028043</v>
       </c>
       <c r="J17">
-        <v>8.542964582746317</v>
+        <v>4.856880421627607</v>
       </c>
       <c r="K17">
-        <v>11.25820611993152</v>
+        <v>12.97045698478956</v>
       </c>
       <c r="L17">
-        <v>12.13522381857738</v>
+        <v>8.138350578342846</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.13298663384076</v>
+        <v>12.56088712217401</v>
       </c>
       <c r="O17">
-        <v>26.8472239293543</v>
+        <v>16.90598216559799</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.49211653153036</v>
+        <v>16.12382010353571</v>
       </c>
       <c r="C18">
-        <v>7.513848005352338</v>
+        <v>6.768822070947617</v>
       </c>
       <c r="D18">
-        <v>13.8457734399121</v>
+        <v>10.28517847375466</v>
       </c>
       <c r="E18">
-        <v>14.26289313888241</v>
+        <v>8.977597874575787</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.53826339223729</v>
+        <v>27.16103755288296</v>
       </c>
       <c r="H18">
-        <v>16.79725399848178</v>
+        <v>9.995389919714416</v>
       </c>
       <c r="I18">
-        <v>26.46723702643428</v>
+        <v>16.08559530045981</v>
       </c>
       <c r="J18">
-        <v>8.545317293552959</v>
+        <v>4.862837151974165</v>
       </c>
       <c r="K18">
-        <v>11.21828933519962</v>
+        <v>12.81969370145323</v>
       </c>
       <c r="L18">
-        <v>12.13323044138762</v>
+        <v>8.098013194872383</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.14600074940216</v>
+        <v>12.60684920026975</v>
       </c>
       <c r="O18">
-        <v>26.86193028486444</v>
+        <v>16.89845104275132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.47323237009942</v>
+        <v>16.05385411373378</v>
       </c>
       <c r="C19">
-        <v>7.51071371871115</v>
+        <v>6.758592794583604</v>
       </c>
       <c r="D19">
-        <v>13.84395230891966</v>
+        <v>10.26283384934028</v>
       </c>
       <c r="E19">
-        <v>14.26393695534477</v>
+        <v>8.970222013685861</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38.54317453971107</v>
+        <v>27.13368984898025</v>
       </c>
       <c r="H19">
-        <v>16.80049394031553</v>
+        <v>9.998439229986523</v>
       </c>
       <c r="I19">
-        <v>26.47334044164097</v>
+        <v>16.09228457666186</v>
       </c>
       <c r="J19">
-        <v>8.54611990957363</v>
+        <v>4.864863726006694</v>
       </c>
       <c r="K19">
-        <v>11.20476458331829</v>
+        <v>12.76825893038912</v>
       </c>
       <c r="L19">
-        <v>12.13258175821593</v>
+        <v>8.084368962384159</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.15043417596217</v>
+        <v>12.62244832768451</v>
       </c>
       <c r="O19">
-        <v>26.86698529885975</v>
+        <v>16.89612863698373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.55815033158476</v>
+        <v>16.36651658071758</v>
       </c>
       <c r="C20">
-        <v>7.524792621560275</v>
+        <v>6.80451407658823</v>
       </c>
       <c r="D20">
-        <v>13.85230626299543</v>
+        <v>10.36338995524088</v>
       </c>
       <c r="E20">
-        <v>14.25936603890987</v>
+        <v>9.003666164157909</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38.52166889456194</v>
+        <v>27.25844454689156</v>
       </c>
       <c r="H20">
-        <v>16.78606011957202</v>
+        <v>9.985119340048866</v>
       </c>
       <c r="I20">
-        <v>26.44614408038983</v>
+        <v>16.06297640033828</v>
       </c>
       <c r="J20">
-        <v>8.542532010653032</v>
+        <v>4.855782573703235</v>
       </c>
       <c r="K20">
-        <v>11.26558896178243</v>
+        <v>12.99817524632783</v>
       </c>
       <c r="L20">
-        <v>12.13560519832022</v>
+        <v>8.145822193470122</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.13059086425748</v>
+        <v>12.55239807687959</v>
       </c>
       <c r="O20">
-        <v>26.84453807182654</v>
+        <v>16.90748474570399</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.84211393926155</v>
+        <v>17.37884507462023</v>
       </c>
       <c r="C21">
-        <v>7.571633318479325</v>
+        <v>6.956790858164706</v>
       </c>
       <c r="D21">
-        <v>13.88313369852821</v>
+        <v>10.70102590577303</v>
       </c>
       <c r="E21">
-        <v>14.24621673891361</v>
+        <v>9.120430972035917</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>38.45983687837677</v>
+        <v>27.70744684241165</v>
       </c>
       <c r="H21">
-        <v>16.7401231448996</v>
+        <v>9.947593360188895</v>
       </c>
       <c r="I21">
-        <v>26.35948771235659</v>
+        <v>15.97882889361497</v>
       </c>
       <c r="J21">
-        <v>8.53089550290578</v>
+        <v>4.825940838689482</v>
       </c>
       <c r="K21">
-        <v>11.46910689084534</v>
+        <v>13.74367258987373</v>
       </c>
       <c r="L21">
-        <v>12.14758052590629</v>
+        <v>8.35307294899167</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.065798669131</v>
+        <v>12.319533544649</v>
       </c>
       <c r="O21">
-        <v>26.7743863729295</v>
+        <v>16.96187323602572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.02639997135537</v>
+        <v>18.01224266854697</v>
       </c>
       <c r="C22">
-        <v>7.601887083218731</v>
+        <v>7.054745151240094</v>
       </c>
       <c r="D22">
-        <v>13.90531580981723</v>
+        <v>10.92122006281703</v>
       </c>
       <c r="E22">
-        <v>14.23926475432081</v>
+        <v>9.200003545704387</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>38.42720608467462</v>
+        <v>28.0234921574346</v>
       </c>
       <c r="H22">
-        <v>16.71200625377251</v>
+        <v>9.928684936427972</v>
       </c>
       <c r="I22">
-        <v>26.30637059630907</v>
+        <v>15.93503486269659</v>
       </c>
       <c r="J22">
-        <v>8.523600957430485</v>
+        <v>4.806928281140533</v>
       </c>
       <c r="K22">
-        <v>11.60128706908592</v>
+        <v>14.21087087309033</v>
       </c>
       <c r="L22">
-        <v>12.15675104246611</v>
+        <v>8.488932207270986</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.02484806485141</v>
+        <v>12.16909312260115</v>
       </c>
       <c r="O22">
-        <v>26.73246686042618</v>
+        <v>17.0099949112922</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.92818063356861</v>
+        <v>17.67675309796532</v>
       </c>
       <c r="C23">
-        <v>7.585773897281511</v>
+        <v>7.002612601290657</v>
       </c>
       <c r="D23">
-        <v>13.89329209522975</v>
+        <v>10.80376011601515</v>
       </c>
       <c r="E23">
-        <v>14.24282520294359</v>
+        <v>9.157237089133547</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>38.44390927711618</v>
+        <v>27.85272440781709</v>
       </c>
       <c r="H23">
-        <v>16.72683850029776</v>
+        <v>9.938247662915629</v>
       </c>
       <c r="I23">
-        <v>26.33439830660813</v>
+        <v>15.95734922759066</v>
       </c>
       <c r="J23">
-        <v>8.527465852466205</v>
+        <v>4.817031285736703</v>
       </c>
       <c r="K23">
-        <v>11.53082875304056</v>
+        <v>13.96334452222465</v>
       </c>
       <c r="L23">
-        <v>12.15173427454591</v>
+        <v>8.416394674207989</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.0465768846531</v>
+        <v>12.24923308780951</v>
       </c>
       <c r="O23">
-        <v>26.75448047287837</v>
+        <v>16.98313034229024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.55349135190966</v>
+        <v>16.34949085424251</v>
       </c>
       <c r="C24">
-        <v>7.524021178020155</v>
+        <v>6.8019996879847</v>
       </c>
       <c r="D24">
-        <v>13.85183706949984</v>
+        <v>10.35786789566032</v>
       </c>
       <c r="E24">
-        <v>14.25960873397653</v>
+        <v>9.001812990930429</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38.52281069770467</v>
+        <v>27.25148232221388</v>
       </c>
       <c r="H24">
-        <v>16.78684312649543</v>
+        <v>9.98582419191797</v>
       </c>
       <c r="I24">
-        <v>26.44761981945853</v>
+        <v>16.06453328878409</v>
       </c>
       <c r="J24">
-        <v>8.542727464009666</v>
+        <v>4.85627872677893</v>
       </c>
       <c r="K24">
-        <v>11.26225142870941</v>
+        <v>12.98565107620014</v>
       </c>
       <c r="L24">
-        <v>12.13543230457303</v>
+        <v>8.142444108379122</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.13167348309632</v>
+        <v>12.55623524560673</v>
       </c>
       <c r="O24">
-        <v>26.84575095483457</v>
+        <v>16.90680127137226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1456822548684</v>
+        <v>14.86616704732232</v>
       </c>
       <c r="C25">
-        <v>7.455962873918215</v>
+        <v>6.579332494428201</v>
       </c>
       <c r="D25">
-        <v>13.81599409739527</v>
+        <v>9.876943233947998</v>
       </c>
       <c r="E25">
-        <v>14.28478704747724</v>
+        <v>8.848258605359632</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.64124357357971</v>
+        <v>26.69750719604847</v>
       </c>
       <c r="H25">
-        <v>16.85975866208565</v>
+        <v>10.05978652520883</v>
       </c>
       <c r="I25">
-        <v>26.58484994936596</v>
+        <v>16.22488649957318</v>
       </c>
       <c r="J25">
-        <v>8.560530953707785</v>
+        <v>4.900774249808215</v>
       </c>
       <c r="K25">
-        <v>10.97030386312969</v>
+        <v>11.84454382053364</v>
       </c>
       <c r="L25">
-        <v>12.12368285300153</v>
+        <v>7.849824072746046</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.22948736175213</v>
+        <v>12.89559671629997</v>
       </c>
       <c r="O25">
-        <v>26.96105177084742</v>
+        <v>16.87535960464539</v>
       </c>
     </row>
   </sheetData>
